--- a/natmiOut/OldD4/LR-pairs_lrc2p/Mcam-Mcam.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Mcam-Mcam.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>65.495738236308</v>
+        <v>88.281043</v>
       </c>
       <c r="H2">
-        <v>65.495738236308</v>
+        <v>264.843129</v>
       </c>
       <c r="I2">
-        <v>0.4443076950878684</v>
+        <v>0.5104595351890647</v>
       </c>
       <c r="J2">
-        <v>0.4443076950878684</v>
+        <v>0.6037079925017727</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>65.495738236308</v>
+        <v>88.281043</v>
       </c>
       <c r="N2">
-        <v>65.495738236308</v>
+        <v>264.843129</v>
       </c>
       <c r="O2">
-        <v>0.4443076950878684</v>
+        <v>0.5104595351890647</v>
       </c>
       <c r="P2">
-        <v>0.4443076950878684</v>
+        <v>0.6037079925017727</v>
       </c>
       <c r="Q2">
-        <v>4289.691727118978</v>
+        <v>7793.542553167848</v>
       </c>
       <c r="R2">
-        <v>4289.691727118978</v>
+        <v>70141.88297851064</v>
       </c>
       <c r="S2">
-        <v>0.1974093279142943</v>
+        <v>0.260568937065436</v>
       </c>
       <c r="T2">
-        <v>0.1974093279142943</v>
+        <v>0.3644633402105204</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>65.495738236308</v>
+        <v>88.281043</v>
       </c>
       <c r="H3">
-        <v>65.495738236308</v>
+        <v>264.843129</v>
       </c>
       <c r="I3">
-        <v>0.4443076950878684</v>
+        <v>0.5104595351890647</v>
       </c>
       <c r="J3">
-        <v>0.4443076950878684</v>
+        <v>0.6037079925017727</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.90913669589815</v>
+        <v>3.371552333333333</v>
       </c>
       <c r="N3">
-        <v>2.90913669589815</v>
+        <v>10.114657</v>
       </c>
       <c r="O3">
-        <v>0.01973489962639293</v>
+        <v>0.01949502382905625</v>
       </c>
       <c r="P3">
-        <v>0.01973489962639293</v>
+        <v>0.02305628730248842</v>
       </c>
       <c r="Q3">
-        <v>190.5360555281832</v>
+        <v>297.6441565157503</v>
       </c>
       <c r="R3">
-        <v>190.5360555281832</v>
+        <v>2678.797408641753</v>
       </c>
       <c r="S3">
-        <v>0.008768367765793081</v>
+        <v>0.009951420802279797</v>
       </c>
       <c r="T3">
-        <v>0.008768367765793081</v>
+        <v>0.01391926492192939</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>65.495738236308</v>
+        <v>88.281043</v>
       </c>
       <c r="H4">
-        <v>65.495738236308</v>
+        <v>264.843129</v>
       </c>
       <c r="I4">
-        <v>0.4443076950878684</v>
+        <v>0.5104595351890647</v>
       </c>
       <c r="J4">
-        <v>0.4443076950878684</v>
+        <v>0.6037079925017727</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.53079079614115</v>
+        <v>0.6617113333333333</v>
       </c>
       <c r="N4">
-        <v>0.53079079614115</v>
+        <v>1.985134</v>
       </c>
       <c r="O4">
-        <v>0.003600760012146754</v>
+        <v>0.003826153930268694</v>
       </c>
       <c r="P4">
-        <v>0.003600760012146754</v>
+        <v>0.00452509856122042</v>
       </c>
       <c r="Q4">
-        <v>34.76453504230228</v>
+        <v>58.41656667158733</v>
       </c>
       <c r="R4">
-        <v>34.76453504230228</v>
+        <v>525.7491000442859</v>
       </c>
       <c r="S4">
-        <v>0.001599845381561489</v>
+        <v>0.001953096756806771</v>
       </c>
       <c r="T4">
-        <v>0.001599845381561489</v>
+        <v>0.00273183816826704</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>65.495738236308</v>
+        <v>88.281043</v>
       </c>
       <c r="H5">
-        <v>65.495738236308</v>
+        <v>264.843129</v>
       </c>
       <c r="I5">
-        <v>0.4443076950878684</v>
+        <v>0.5104595351890647</v>
       </c>
       <c r="J5">
-        <v>0.4443076950878684</v>
+        <v>0.6037079925017727</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.474760654086156</v>
+        <v>0.4912783333333333</v>
       </c>
       <c r="N5">
-        <v>0.474760654086156</v>
+        <v>1.473835</v>
       </c>
       <c r="O5">
-        <v>0.003220664696905315</v>
+        <v>0.00284067452263553</v>
       </c>
       <c r="P5">
-        <v>0.003220664696905315</v>
+        <v>0.003359596197524347</v>
       </c>
       <c r="Q5">
-        <v>31.09479952492524</v>
+        <v>43.37056366996833</v>
       </c>
       <c r="R5">
-        <v>31.09479952492524</v>
+        <v>390.335073029715</v>
       </c>
       <c r="S5">
-        <v>0.001430966108132869</v>
+        <v>0.001450049396447951</v>
       </c>
       <c r="T5">
-        <v>0.001430966108132869</v>
+        <v>0.002028215076024012</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>65.495738236308</v>
+        <v>88.281043</v>
       </c>
       <c r="H6">
-        <v>65.495738236308</v>
+        <v>264.843129</v>
       </c>
       <c r="I6">
-        <v>0.4443076950878684</v>
+        <v>0.5104595351890647</v>
       </c>
       <c r="J6">
-        <v>0.4443076950878684</v>
+        <v>0.6037079925017727</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>78.0003408863064</v>
+        <v>80.138668</v>
       </c>
       <c r="N6">
-        <v>78.0003408863064</v>
+        <v>160.277336</v>
       </c>
       <c r="O6">
-        <v>0.5291359805766866</v>
+        <v>0.4633786125289749</v>
       </c>
       <c r="P6">
-        <v>0.5291359805766866</v>
+        <v>0.365351025436994</v>
       </c>
       <c r="Q6">
-        <v>5108.689909032317</v>
+        <v>7074.725195670723</v>
       </c>
       <c r="R6">
-        <v>5108.689909032317</v>
+        <v>42448.35117402434</v>
       </c>
       <c r="S6">
-        <v>0.2350991879180868</v>
+        <v>0.2365360311680942</v>
       </c>
       <c r="T6">
-        <v>0.2350991879180868</v>
+        <v>0.2205653341250318</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.90913669589815</v>
+        <v>3.371552333333333</v>
       </c>
       <c r="H7">
-        <v>2.90913669589815</v>
+        <v>10.114657</v>
       </c>
       <c r="I7">
-        <v>0.01973489962639293</v>
+        <v>0.01949502382905625</v>
       </c>
       <c r="J7">
-        <v>0.01973489962639293</v>
+        <v>0.02305628730248842</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>65.495738236308</v>
+        <v>88.281043</v>
       </c>
       <c r="N7">
-        <v>65.495738236308</v>
+        <v>264.843129</v>
       </c>
       <c r="O7">
-        <v>0.4443076950878684</v>
+        <v>0.5104595351890647</v>
       </c>
       <c r="P7">
-        <v>0.4443076950878684</v>
+        <v>0.6037079925017727</v>
       </c>
       <c r="Q7">
-        <v>190.5360555281832</v>
+        <v>297.6441565157503</v>
       </c>
       <c r="R7">
-        <v>190.5360555281832</v>
+        <v>2678.797408641753</v>
       </c>
       <c r="S7">
-        <v>0.008768367765793081</v>
+        <v>0.009951420802279797</v>
       </c>
       <c r="T7">
-        <v>0.008768367765793081</v>
+        <v>0.01391926492192939</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.90913669589815</v>
+        <v>3.371552333333333</v>
       </c>
       <c r="H8">
-        <v>2.90913669589815</v>
+        <v>10.114657</v>
       </c>
       <c r="I8">
-        <v>0.01973489962639293</v>
+        <v>0.01949502382905625</v>
       </c>
       <c r="J8">
-        <v>0.01973489962639293</v>
+        <v>0.02305628730248842</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.90913669589815</v>
+        <v>3.371552333333333</v>
       </c>
       <c r="N8">
-        <v>2.90913669589815</v>
+        <v>10.114657</v>
       </c>
       <c r="O8">
-        <v>0.01973489962639293</v>
+        <v>0.01949502382905625</v>
       </c>
       <c r="P8">
-        <v>0.01973489962639293</v>
+        <v>0.02305628730248842</v>
       </c>
       <c r="Q8">
-        <v>8.463076315421205</v>
+        <v>11.36736513640544</v>
       </c>
       <c r="R8">
-        <v>8.463076315421205</v>
+        <v>102.306286227649</v>
       </c>
       <c r="S8">
-        <v>0.000389466263263804</v>
+        <v>0.0003800559540954712</v>
       </c>
       <c r="T8">
-        <v>0.000389466263263804</v>
+        <v>0.0005315923841748886</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.90913669589815</v>
+        <v>3.371552333333333</v>
       </c>
       <c r="H9">
-        <v>2.90913669589815</v>
+        <v>10.114657</v>
       </c>
       <c r="I9">
-        <v>0.01973489962639293</v>
+        <v>0.01949502382905625</v>
       </c>
       <c r="J9">
-        <v>0.01973489962639293</v>
+        <v>0.02305628730248842</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.53079079614115</v>
+        <v>0.6617113333333333</v>
       </c>
       <c r="N9">
-        <v>0.53079079614115</v>
+        <v>1.985134</v>
       </c>
       <c r="O9">
-        <v>0.003600760012146754</v>
+        <v>0.003826153930268694</v>
       </c>
       <c r="P9">
-        <v>0.003600760012146754</v>
+        <v>0.00452509856122042</v>
       </c>
       <c r="Q9">
-        <v>1.544142982899213</v>
+        <v>2.230994389893111</v>
       </c>
       <c r="R9">
-        <v>1.544142982899213</v>
+        <v>20.078949509038</v>
       </c>
       <c r="S9">
-        <v>7.10606374184456E-05</v>
+        <v>7.459096204422544E-05</v>
       </c>
       <c r="T9">
-        <v>7.10606374184456E-05</v>
+        <v>0.000104331972499575</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.90913669589815</v>
+        <v>3.371552333333333</v>
       </c>
       <c r="H10">
-        <v>2.90913669589815</v>
+        <v>10.114657</v>
       </c>
       <c r="I10">
-        <v>0.01973489962639293</v>
+        <v>0.01949502382905625</v>
       </c>
       <c r="J10">
-        <v>0.01973489962639293</v>
+        <v>0.02305628730248842</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.474760654086156</v>
+        <v>0.4912783333333333</v>
       </c>
       <c r="N10">
-        <v>0.474760654086156</v>
+        <v>1.473835</v>
       </c>
       <c r="O10">
-        <v>0.003220664696905315</v>
+        <v>0.00284067452263553</v>
       </c>
       <c r="P10">
-        <v>0.003220664696905315</v>
+        <v>0.003359596197524347</v>
       </c>
       <c r="Q10">
-        <v>1.381143640570644</v>
+        <v>1.656370611066111</v>
       </c>
       <c r="R10">
-        <v>1.381143640570644</v>
+        <v>14.907335499595</v>
       </c>
       <c r="S10">
-        <v>6.355949452369362E-05</v>
+        <v>5.537901750937267E-05</v>
       </c>
       <c r="T10">
-        <v>6.355949452369362E-05</v>
+        <v>7.745981515046898E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.90913669589815</v>
+        <v>3.371552333333333</v>
       </c>
       <c r="H11">
-        <v>2.90913669589815</v>
+        <v>10.114657</v>
       </c>
       <c r="I11">
-        <v>0.01973489962639293</v>
+        <v>0.01949502382905625</v>
       </c>
       <c r="J11">
-        <v>0.01973489962639293</v>
+        <v>0.02305628730248842</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>78.0003408863064</v>
+        <v>80.138668</v>
       </c>
       <c r="N11">
-        <v>78.0003408863064</v>
+        <v>160.277336</v>
       </c>
       <c r="O11">
-        <v>0.5291359805766866</v>
+        <v>0.4633786125289749</v>
       </c>
       <c r="P11">
-        <v>0.5291359805766866</v>
+        <v>0.365351025436994</v>
       </c>
       <c r="Q11">
-        <v>226.9136539649188</v>
+        <v>270.1917130856253</v>
       </c>
       <c r="R11">
-        <v>226.9136539649188</v>
+        <v>1621.150278513752</v>
       </c>
       <c r="S11">
-        <v>0.01044244546539391</v>
+        <v>0.00903357709312739</v>
       </c>
       <c r="T11">
-        <v>0.01044244546539391</v>
+        <v>0.00842363820873409</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.53079079614115</v>
+        <v>0.6617113333333333</v>
       </c>
       <c r="H12">
-        <v>0.53079079614115</v>
+        <v>1.985134</v>
       </c>
       <c r="I12">
-        <v>0.003600760012146754</v>
+        <v>0.003826153930268694</v>
       </c>
       <c r="J12">
-        <v>0.003600760012146754</v>
+        <v>0.00452509856122042</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>65.495738236308</v>
+        <v>88.281043</v>
       </c>
       <c r="N12">
-        <v>65.495738236308</v>
+        <v>264.843129</v>
       </c>
       <c r="O12">
-        <v>0.4443076950878684</v>
+        <v>0.5104595351890647</v>
       </c>
       <c r="P12">
-        <v>0.4443076950878684</v>
+        <v>0.6037079925017727</v>
       </c>
       <c r="Q12">
-        <v>34.76453504230228</v>
+        <v>58.41656667158733</v>
       </c>
       <c r="R12">
-        <v>34.76453504230228</v>
+        <v>525.7491000442859</v>
       </c>
       <c r="S12">
-        <v>0.001599845381561489</v>
+        <v>0.001953096756806771</v>
       </c>
       <c r="T12">
-        <v>0.001599845381561489</v>
+        <v>0.00273183816826704</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.53079079614115</v>
+        <v>0.6617113333333333</v>
       </c>
       <c r="H13">
-        <v>0.53079079614115</v>
+        <v>1.985134</v>
       </c>
       <c r="I13">
-        <v>0.003600760012146754</v>
+        <v>0.003826153930268694</v>
       </c>
       <c r="J13">
-        <v>0.003600760012146754</v>
+        <v>0.00452509856122042</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.90913669589815</v>
+        <v>3.371552333333333</v>
       </c>
       <c r="N13">
-        <v>2.90913669589815</v>
+        <v>10.114657</v>
       </c>
       <c r="O13">
-        <v>0.01973489962639293</v>
+        <v>0.01949502382905625</v>
       </c>
       <c r="P13">
-        <v>0.01973489962639293</v>
+        <v>0.02305628730248842</v>
       </c>
       <c r="Q13">
-        <v>1.544142982899213</v>
+        <v>2.230994389893111</v>
       </c>
       <c r="R13">
-        <v>1.544142982899213</v>
+        <v>20.078949509038</v>
       </c>
       <c r="S13">
-        <v>7.10606374184456E-05</v>
+        <v>7.459096204422544E-05</v>
       </c>
       <c r="T13">
-        <v>7.10606374184456E-05</v>
+        <v>0.000104331972499575</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.53079079614115</v>
+        <v>0.6617113333333333</v>
       </c>
       <c r="H14">
-        <v>0.53079079614115</v>
+        <v>1.985134</v>
       </c>
       <c r="I14">
-        <v>0.003600760012146754</v>
+        <v>0.003826153930268694</v>
       </c>
       <c r="J14">
-        <v>0.003600760012146754</v>
+        <v>0.00452509856122042</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.53079079614115</v>
+        <v>0.6617113333333333</v>
       </c>
       <c r="N14">
-        <v>0.53079079614115</v>
+        <v>1.985134</v>
       </c>
       <c r="O14">
-        <v>0.003600760012146754</v>
+        <v>0.003826153930268694</v>
       </c>
       <c r="P14">
-        <v>0.003600760012146754</v>
+        <v>0.00452509856122042</v>
       </c>
       <c r="Q14">
-        <v>0.2817388692681558</v>
+        <v>0.4378618886617778</v>
       </c>
       <c r="R14">
-        <v>0.2817388692681558</v>
+        <v>3.940756997956</v>
       </c>
       <c r="S14">
-        <v>1.296547266507509E-05</v>
+        <v>1.463945389811058E-05</v>
       </c>
       <c r="T14">
-        <v>1.296547266507509E-05</v>
+        <v>2.047651698875911E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.53079079614115</v>
+        <v>0.6617113333333333</v>
       </c>
       <c r="H15">
-        <v>0.53079079614115</v>
+        <v>1.985134</v>
       </c>
       <c r="I15">
-        <v>0.003600760012146754</v>
+        <v>0.003826153930268694</v>
       </c>
       <c r="J15">
-        <v>0.003600760012146754</v>
+        <v>0.00452509856122042</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.474760654086156</v>
+        <v>0.4912783333333333</v>
       </c>
       <c r="N15">
-        <v>0.474760654086156</v>
+        <v>1.473835</v>
       </c>
       <c r="O15">
-        <v>0.003220664696905315</v>
+        <v>0.00284067452263553</v>
       </c>
       <c r="P15">
-        <v>0.003220664696905315</v>
+        <v>0.003359596197524347</v>
       </c>
       <c r="Q15">
-        <v>0.2519985855588838</v>
+        <v>0.3250844409877778</v>
       </c>
       <c r="R15">
-        <v>0.2519985855588838</v>
+        <v>2.92575996889</v>
       </c>
       <c r="S15">
-        <v>1.15968406531494E-05</v>
+        <v>1.086885798939608E-05</v>
       </c>
       <c r="T15">
-        <v>1.15968406531494E-05</v>
+        <v>1.520250391969902E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.53079079614115</v>
+        <v>0.6617113333333333</v>
       </c>
       <c r="H16">
-        <v>0.53079079614115</v>
+        <v>1.985134</v>
       </c>
       <c r="I16">
-        <v>0.003600760012146754</v>
+        <v>0.003826153930268694</v>
       </c>
       <c r="J16">
-        <v>0.003600760012146754</v>
+        <v>0.00452509856122042</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>78.0003408863064</v>
+        <v>80.138668</v>
       </c>
       <c r="N16">
-        <v>78.0003408863064</v>
+        <v>160.277336</v>
       </c>
       <c r="O16">
-        <v>0.5291359805766866</v>
+        <v>0.4633786125289749</v>
       </c>
       <c r="P16">
-        <v>0.5291359805766866</v>
+        <v>0.365351025436994</v>
       </c>
       <c r="Q16">
-        <v>41.40186303832367</v>
+        <v>53.02866485383733</v>
       </c>
       <c r="R16">
-        <v>41.40186303832367</v>
+        <v>318.171989123024</v>
       </c>
       <c r="S16">
-        <v>0.001905291679848595</v>
+        <v>0.001772957899530192</v>
       </c>
       <c r="T16">
-        <v>0.001905291679848595</v>
+        <v>0.001653249399545347</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.474760654086156</v>
+        <v>0.4912783333333333</v>
       </c>
       <c r="H17">
-        <v>0.474760654086156</v>
+        <v>1.473835</v>
       </c>
       <c r="I17">
-        <v>0.003220664696905315</v>
+        <v>0.00284067452263553</v>
       </c>
       <c r="J17">
-        <v>0.003220664696905315</v>
+        <v>0.003359596197524347</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>65.495738236308</v>
+        <v>88.281043</v>
       </c>
       <c r="N17">
-        <v>65.495738236308</v>
+        <v>264.843129</v>
       </c>
       <c r="O17">
-        <v>0.4443076950878684</v>
+        <v>0.5104595351890647</v>
       </c>
       <c r="P17">
-        <v>0.4443076950878684</v>
+        <v>0.6037079925017727</v>
       </c>
       <c r="Q17">
-        <v>31.09479952492524</v>
+        <v>43.37056366996833</v>
       </c>
       <c r="R17">
-        <v>31.09479952492524</v>
+        <v>390.335073029715</v>
       </c>
       <c r="S17">
-        <v>0.001430966108132869</v>
+        <v>0.001450049396447951</v>
       </c>
       <c r="T17">
-        <v>0.001430966108132869</v>
+        <v>0.002028215076024012</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1523,52 +1523,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.474760654086156</v>
+        <v>0.4912783333333333</v>
       </c>
       <c r="H18">
-        <v>0.474760654086156</v>
+        <v>1.473835</v>
       </c>
       <c r="I18">
-        <v>0.003220664696905315</v>
+        <v>0.00284067452263553</v>
       </c>
       <c r="J18">
-        <v>0.003220664696905315</v>
+        <v>0.003359596197524347</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.90913669589815</v>
+        <v>3.371552333333333</v>
       </c>
       <c r="N18">
-        <v>2.90913669589815</v>
+        <v>10.114657</v>
       </c>
       <c r="O18">
-        <v>0.01973489962639293</v>
+        <v>0.01949502382905625</v>
       </c>
       <c r="P18">
-        <v>0.01973489962639293</v>
+        <v>0.02305628730248842</v>
       </c>
       <c r="Q18">
-        <v>1.381143640570644</v>
+        <v>1.656370611066111</v>
       </c>
       <c r="R18">
-        <v>1.381143640570644</v>
+        <v>14.907335499595</v>
       </c>
       <c r="S18">
-        <v>6.355949452369362E-05</v>
+        <v>5.537901750937267E-05</v>
       </c>
       <c r="T18">
-        <v>6.355949452369362E-05</v>
+        <v>7.745981515046898E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1585,52 +1585,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.474760654086156</v>
+        <v>0.4912783333333333</v>
       </c>
       <c r="H19">
-        <v>0.474760654086156</v>
+        <v>1.473835</v>
       </c>
       <c r="I19">
-        <v>0.003220664696905315</v>
+        <v>0.00284067452263553</v>
       </c>
       <c r="J19">
-        <v>0.003220664696905315</v>
+        <v>0.003359596197524347</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.53079079614115</v>
+        <v>0.6617113333333333</v>
       </c>
       <c r="N19">
-        <v>0.53079079614115</v>
+        <v>1.985134</v>
       </c>
       <c r="O19">
-        <v>0.003600760012146754</v>
+        <v>0.003826153930268694</v>
       </c>
       <c r="P19">
-        <v>0.003600760012146754</v>
+        <v>0.00452509856122042</v>
       </c>
       <c r="Q19">
-        <v>0.2519985855588838</v>
+        <v>0.3250844409877778</v>
       </c>
       <c r="R19">
-        <v>0.2519985855588838</v>
+        <v>2.92575996889</v>
       </c>
       <c r="S19">
-        <v>1.15968406531494E-05</v>
+        <v>1.086885798939608E-05</v>
       </c>
       <c r="T19">
-        <v>1.15968406531494E-05</v>
+        <v>1.520250391969902E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1647,52 +1647,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.474760654086156</v>
+        <v>0.4912783333333333</v>
       </c>
       <c r="H20">
-        <v>0.474760654086156</v>
+        <v>1.473835</v>
       </c>
       <c r="I20">
-        <v>0.003220664696905315</v>
+        <v>0.00284067452263553</v>
       </c>
       <c r="J20">
-        <v>0.003220664696905315</v>
+        <v>0.003359596197524347</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.474760654086156</v>
+        <v>0.4912783333333333</v>
       </c>
       <c r="N20">
-        <v>0.474760654086156</v>
+        <v>1.473835</v>
       </c>
       <c r="O20">
-        <v>0.003220664696905315</v>
+        <v>0.00284067452263553</v>
       </c>
       <c r="P20">
-        <v>0.003220664696905315</v>
+        <v>0.003359596197524347</v>
       </c>
       <c r="Q20">
-        <v>0.2253976786683146</v>
+        <v>0.2413544008027778</v>
       </c>
       <c r="R20">
-        <v>0.2253976786683146</v>
+        <v>2.172189607225</v>
       </c>
       <c r="S20">
-        <v>1.037268108989221E-05</v>
+        <v>8.069431743550599E-06</v>
       </c>
       <c r="T20">
-        <v>1.037268108989221E-05</v>
+        <v>1.128688661042005E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1709,52 +1709,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.474760654086156</v>
+        <v>0.4912783333333333</v>
       </c>
       <c r="H21">
-        <v>0.474760654086156</v>
+        <v>1.473835</v>
       </c>
       <c r="I21">
-        <v>0.003220664696905315</v>
+        <v>0.00284067452263553</v>
       </c>
       <c r="J21">
-        <v>0.003220664696905315</v>
+        <v>0.003359596197524347</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>78.0003408863064</v>
+        <v>80.138668</v>
       </c>
       <c r="N21">
-        <v>78.0003408863064</v>
+        <v>160.277336</v>
       </c>
       <c r="O21">
-        <v>0.5291359805766866</v>
+        <v>0.4633786125289749</v>
       </c>
       <c r="P21">
-        <v>0.5291359805766866</v>
+        <v>0.365351025436994</v>
       </c>
       <c r="Q21">
-        <v>37.03149285812597</v>
+        <v>39.37039125059333</v>
       </c>
       <c r="R21">
-        <v>37.03149285812597</v>
+        <v>236.22234750356</v>
       </c>
       <c r="S21">
-        <v>0.001704169572505711</v>
+        <v>0.00131630781894526</v>
       </c>
       <c r="T21">
-        <v>0.001704169572505711</v>
+        <v>0.001227431915819746</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1771,52 +1771,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>78.0003408863064</v>
+        <v>80.138668</v>
       </c>
       <c r="H22">
-        <v>78.0003408863064</v>
+        <v>160.277336</v>
       </c>
       <c r="I22">
-        <v>0.5291359805766866</v>
+        <v>0.4633786125289749</v>
       </c>
       <c r="J22">
-        <v>0.5291359805766866</v>
+        <v>0.365351025436994</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>65.495738236308</v>
+        <v>88.281043</v>
       </c>
       <c r="N22">
-        <v>65.495738236308</v>
+        <v>264.843129</v>
       </c>
       <c r="O22">
-        <v>0.4443076950878684</v>
+        <v>0.5104595351890647</v>
       </c>
       <c r="P22">
-        <v>0.4443076950878684</v>
+        <v>0.6037079925017727</v>
       </c>
       <c r="Q22">
-        <v>5108.689909032317</v>
+        <v>7074.725195670723</v>
       </c>
       <c r="R22">
-        <v>5108.689909032317</v>
+        <v>42448.35117402434</v>
       </c>
       <c r="S22">
-        <v>0.2350991879180868</v>
+        <v>0.2365360311680942</v>
       </c>
       <c r="T22">
-        <v>0.2350991879180868</v>
+        <v>0.2205653341250318</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1833,52 +1833,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>78.0003408863064</v>
+        <v>80.138668</v>
       </c>
       <c r="H23">
-        <v>78.0003408863064</v>
+        <v>160.277336</v>
       </c>
       <c r="I23">
-        <v>0.5291359805766866</v>
+        <v>0.4633786125289749</v>
       </c>
       <c r="J23">
-        <v>0.5291359805766866</v>
+        <v>0.365351025436994</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.90913669589815</v>
+        <v>3.371552333333333</v>
       </c>
       <c r="N23">
-        <v>2.90913669589815</v>
+        <v>10.114657</v>
       </c>
       <c r="O23">
-        <v>0.01973489962639293</v>
+        <v>0.01949502382905625</v>
       </c>
       <c r="P23">
-        <v>0.01973489962639293</v>
+        <v>0.02305628730248842</v>
       </c>
       <c r="Q23">
-        <v>226.9136539649188</v>
+        <v>270.1917130856253</v>
       </c>
       <c r="R23">
-        <v>226.9136539649188</v>
+        <v>1621.150278513752</v>
       </c>
       <c r="S23">
-        <v>0.01044244546539391</v>
+        <v>0.00903357709312739</v>
       </c>
       <c r="T23">
-        <v>0.01044244546539391</v>
+        <v>0.00842363820873409</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1895,52 +1895,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>78.0003408863064</v>
+        <v>80.138668</v>
       </c>
       <c r="H24">
-        <v>78.0003408863064</v>
+        <v>160.277336</v>
       </c>
       <c r="I24">
-        <v>0.5291359805766866</v>
+        <v>0.4633786125289749</v>
       </c>
       <c r="J24">
-        <v>0.5291359805766866</v>
+        <v>0.365351025436994</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.53079079614115</v>
+        <v>0.6617113333333333</v>
       </c>
       <c r="N24">
-        <v>0.53079079614115</v>
+        <v>1.985134</v>
       </c>
       <c r="O24">
-        <v>0.003600760012146754</v>
+        <v>0.003826153930268694</v>
       </c>
       <c r="P24">
-        <v>0.003600760012146754</v>
+        <v>0.00452509856122042</v>
       </c>
       <c r="Q24">
-        <v>41.40186303832367</v>
+        <v>53.02866485383733</v>
       </c>
       <c r="R24">
-        <v>41.40186303832367</v>
+        <v>318.171989123024</v>
       </c>
       <c r="S24">
-        <v>0.001905291679848595</v>
+        <v>0.001772957899530192</v>
       </c>
       <c r="T24">
-        <v>0.001905291679848595</v>
+        <v>0.001653249399545347</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1957,52 +1957,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>78.0003408863064</v>
+        <v>80.138668</v>
       </c>
       <c r="H25">
-        <v>78.0003408863064</v>
+        <v>160.277336</v>
       </c>
       <c r="I25">
-        <v>0.5291359805766866</v>
+        <v>0.4633786125289749</v>
       </c>
       <c r="J25">
-        <v>0.5291359805766866</v>
+        <v>0.365351025436994</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.474760654086156</v>
+        <v>0.4912783333333333</v>
       </c>
       <c r="N25">
-        <v>0.474760654086156</v>
+        <v>1.473835</v>
       </c>
       <c r="O25">
-        <v>0.003220664696905315</v>
+        <v>0.00284067452263553</v>
       </c>
       <c r="P25">
-        <v>0.003220664696905315</v>
+        <v>0.003359596197524347</v>
       </c>
       <c r="Q25">
-        <v>37.03149285812597</v>
+        <v>39.37039125059333</v>
       </c>
       <c r="R25">
-        <v>37.03149285812597</v>
+        <v>236.22234750356</v>
       </c>
       <c r="S25">
-        <v>0.001704169572505711</v>
+        <v>0.00131630781894526</v>
       </c>
       <c r="T25">
-        <v>0.001704169572505711</v>
+        <v>0.001227431915819746</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2019,52 +2019,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>78.0003408863064</v>
+        <v>80.138668</v>
       </c>
       <c r="H26">
-        <v>78.0003408863064</v>
+        <v>160.277336</v>
       </c>
       <c r="I26">
-        <v>0.5291359805766866</v>
+        <v>0.4633786125289749</v>
       </c>
       <c r="J26">
-        <v>0.5291359805766866</v>
+        <v>0.365351025436994</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>78.0003408863064</v>
+        <v>80.138668</v>
       </c>
       <c r="N26">
-        <v>78.0003408863064</v>
+        <v>160.277336</v>
       </c>
       <c r="O26">
-        <v>0.5291359805766866</v>
+        <v>0.4633786125289749</v>
       </c>
       <c r="P26">
-        <v>0.5291359805766866</v>
+        <v>0.365351025436994</v>
       </c>
       <c r="Q26">
-        <v>6084.053178380002</v>
+        <v>6422.206108814224</v>
       </c>
       <c r="R26">
-        <v>6084.053178380002</v>
+        <v>25688.82443525689</v>
       </c>
       <c r="S26">
-        <v>0.2799848859408517</v>
+        <v>0.2147197385492778</v>
       </c>
       <c r="T26">
-        <v>0.2799848859408517</v>
+        <v>0.1334813717878631</v>
       </c>
     </row>
   </sheetData>
